--- a/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
+++ b/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Predictive-Maintainance-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A402890A-8FA4-9845-AD7E-1245AF6970FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22E002-A30A-0F46-B7F0-CC0ABCF4EEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-56580" yWindow="-940" windowWidth="28040" windowHeight="17440" xr2:uid="{C562F520-08FA-2042-9BB2-207ABB22424F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,35 +428,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43794.416666666664</v>
+        <v>43794.432638888888</v>
       </c>
       <c r="B2" s="1">
-        <v>43794.5</v>
+        <v>43794.53402777778</v>
       </c>
       <c r="C2" s="1">
-        <v>43794.875</v>
+        <v>43796.884722222225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43794.5</v>
+        <v>43794.511805555558</v>
       </c>
       <c r="B3" s="1">
         <v>43794.520833333336</v>
       </c>
       <c r="C3" s="1">
-        <v>43794.333333333336</v>
+        <v>43799.333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43794.583333333336</v>
+        <v>43792.583333333336</v>
       </c>
       <c r="B4" s="1">
-        <v>43794.65625</v>
+        <v>43793.65625</v>
       </c>
       <c r="C4" s="1">
-        <v>43794.916666666664</v>
+        <v>43797.916666666664</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
+++ b/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Predictive-Maintainance-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22E002-A30A-0F46-B7F0-CC0ABCF4EEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6112D-0DA4-F445-953F-9E33A003839D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-56580" yWindow="-940" windowWidth="28040" windowHeight="17440" xr2:uid="{C562F520-08FA-2042-9BB2-207ABB22424F}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,35 +428,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43794.432638888888</v>
+        <v>43795.447222222225</v>
       </c>
       <c r="B2" s="1">
-        <v>43794.53402777778</v>
+        <v>43795.602777777778</v>
       </c>
       <c r="C2" s="1">
-        <v>43796.884722222225</v>
+        <v>43807.884722222225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43794.511805555558</v>
+        <v>43796.511805555558</v>
       </c>
       <c r="B3" s="1">
-        <v>43794.520833333336</v>
+        <v>43796.568749999999</v>
       </c>
       <c r="C3" s="1">
-        <v>43799.333333333336</v>
+        <v>43799.341666666667</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43792.583333333336</v>
+        <v>43795.583333333336</v>
       </c>
       <c r="B4" s="1">
-        <v>43793.65625</v>
+        <v>43796.333333333336</v>
       </c>
       <c r="C4" s="1">
-        <v>43797.916666666664</v>
+        <v>43827.916666666664</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
+++ b/_templates/Predictive-Maintainance-Board/Breakdowns_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Predictive-Maintainance-Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6112D-0DA4-F445-953F-9E33A003839D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F1B2C-F435-5346-A66E-08DA0CEA33A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-56580" yWindow="-940" windowWidth="28040" windowHeight="17440" xr2:uid="{C562F520-08FA-2042-9BB2-207ABB22424F}"/>
+    <workbookView xWindow="-56580" yWindow="-4040" windowWidth="32900" windowHeight="20540" xr2:uid="{C562F520-08FA-2042-9BB2-207ABB22424F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
         <v>43795.602777777778</v>
       </c>
       <c r="C2" s="1">
-        <v>43807.884722222225</v>
+        <v>43807.875</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -445,15 +445,15 @@
         <v>43796.568749999999</v>
       </c>
       <c r="C3" s="1">
-        <v>43799.341666666667</v>
+        <v>43799.333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43795.583333333336</v>
+        <v>43795.6</v>
       </c>
       <c r="B4" s="1">
-        <v>43796.333333333336</v>
+        <v>43796.367361111108</v>
       </c>
       <c r="C4" s="1">
         <v>43827.916666666664</v>
